--- a/scrapers/TA/scrapes/1. Run/Hotel_Region/tripadvisor_data_Teplice_2019-04-15 17-01-16.806709.csvoutput.xlsx
+++ b/scrapers/TA/scrapes/1. Run/Hotel_Region/tripadvisor_data_Teplice_2019-04-15 17-01-16.806709.csvoutput.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TobiasRordorf/Desktop/UNI/MBI HSG/4. Semester/Python/GitHub/hotelierchallenge/scrapers/TA/scrapes/1. Run/Hotel_Region/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A5FA0-14CB-2E4E-8478-61BB28350633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
   <si>
     <t>hotel_name</t>
   </si>
@@ -118,83 +132,89 @@
     <t>Teplice</t>
   </si>
   <si>
-    <t xml:space="preserve"> 63</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 163</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 68</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97</t>
+    <t> 63</t>
+  </si>
+  <si>
+    <t> 163</t>
+  </si>
+  <si>
+    <t> 66</t>
+  </si>
+  <si>
+    <t> 68</t>
+  </si>
+  <si>
+    <t> 34</t>
+  </si>
+  <si>
+    <t> 45</t>
+  </si>
+  <si>
+    <t> 37</t>
+  </si>
+  <si>
+    <t> 48</t>
+  </si>
+  <si>
+    <t> 56</t>
+  </si>
+  <si>
+    <t> 75</t>
+  </si>
+  <si>
+    <t> 51</t>
+  </si>
+  <si>
+    <t> 39</t>
+  </si>
+  <si>
+    <t> 49</t>
+  </si>
+  <si>
+    <t> 61</t>
+  </si>
+  <si>
+    <t> 60</t>
+  </si>
+  <si>
+    <t> 35</t>
+  </si>
+  <si>
+    <t> 46</t>
+  </si>
+  <si>
+    <t> 38</t>
+  </si>
+  <si>
+    <t> 97</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58</t>
+    <t> 74</t>
+  </si>
+  <si>
+    <t> 73</t>
+  </si>
+  <si>
+    <t> 91</t>
+  </si>
+  <si>
+    <t> 58</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>2019-04-15 17-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,26 +262,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -303,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,9 +377,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,6 +429,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,14 +622,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +641,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -572,8 +655,11 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -583,8 +669,11 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -594,8 +683,11 @@
       <c r="C4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -605,8 +697,11 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -616,8 +711,11 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -627,8 +725,11 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -638,8 +739,11 @@
       <c r="C8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -649,8 +753,11 @@
       <c r="C9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -660,8 +767,11 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -671,8 +781,11 @@
       <c r="C11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -682,8 +795,11 @@
       <c r="C12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -693,8 +809,11 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -704,8 +823,11 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -715,8 +837,11 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -726,8 +851,11 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -737,8 +865,11 @@
       <c r="C17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -748,8 +879,11 @@
       <c r="C18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -759,8 +893,11 @@
       <c r="C19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -770,8 +907,11 @@
       <c r="C20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -781,8 +921,11 @@
       <c r="C21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -792,8 +935,11 @@
       <c r="C22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -803,8 +949,11 @@
       <c r="C23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -814,8 +963,11 @@
       <c r="C24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -825,8 +977,11 @@
       <c r="C25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -836,8 +991,11 @@
       <c r="C26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -847,8 +1005,11 @@
       <c r="C27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -858,8 +1019,11 @@
       <c r="C28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -869,8 +1033,11 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -880,8 +1047,11 @@
       <c r="C30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -890,6 +1060,9 @@
       </c>
       <c r="C31" t="s">
         <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
